--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8983270-486E-4372-8728-81A35E3A705F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D3C5E-90C5-4CDB-BC19-2C857C692AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="540" windowWidth="37935" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39150" yWindow="1110" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
   <si>
     <t>Element</t>
   </si>
@@ -316,24 +316,12 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>conf_Coverage</t>
-  </si>
-  <si>
     <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
   </si>
   <si>
     <t>doc</t>
   </si>
   <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>conf_Bundle</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -373,12 +361,6 @@
     <t>4.0.1</t>
   </si>
   <si>
-    <t>doc_Coverage</t>
-  </si>
-  <si>
-    <t>doc_Bundle</t>
-  </si>
-  <si>
     <t>profile_conf</t>
   </si>
   <si>
@@ -391,13 +373,7 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>data-consumer</t>
-  </si>
-  <si>
     <t>0.2.0</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer)  when requesting clinical data from the Data Source (often an EHR).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
@@ -430,30 +406,15 @@
     <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
   </si>
   <si>
-    <t>Required resource type to carry information regarding reason for requesting Clniical information for prior authorization.</t>
-  </si>
-  <si>
-    <t>Required resource type to request and fetch clinical information from data source</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
-    <t>Required resource type to fetch Clinical Information from data source</t>
-  </si>
-  <si>
     <t>Required resource type to subscribe to data source</t>
   </si>
   <si>
     <t>conf_Subscription</t>
   </si>
   <si>
-    <t>conf_Task</t>
-  </si>
-  <si>
-    <t>doc_Task</t>
-  </si>
-  <si>
     <t>doc_Subscription</t>
   </si>
   <si>
@@ -463,12 +424,6 @@
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
   </si>
   <si>
-    <t>"\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\data-source.xlsx"</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/resources/resources-spreadsheet/data-consumer.xlsx'</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -481,14 +436,50 @@
     <t>history-system</t>
   </si>
   <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>data-consumer-server</t>
+  </si>
+  <si>
+    <t>CommunicationRequest</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clniical information</t>
+  </si>
+  <si>
     <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support at least on of the two FHIR transaction approaches for requesting information as defined in this Guide:
-     1. Direct Query
-     1. Task Based Approachs
+1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
 1. Support json source formats for all Da Vinci Notification interactions.
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
+1. Declare a CapabilityStatement identifying  transactions and profiles supported.
 The  Da Vinci CDex Data Consumer  **SHOULD**:
 1. Support xml source formats for all Da Vinci Notification interactions.</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in Server mode when *reponding" to a  Data Source  (often an EHR) or one of its proxies is acting as a Client during a clnical data exchange *using the Task based approach*.   This includes the following interactions:
+1. Responding to a query for Authorization information represented by a CommunicationRequest or ServiceRequest
+1. Responding to Subscription Notification posted to it endpoint updating the status of a Task</t>
+  </si>
+  <si>
+    <t>conf_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>doc_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>doc_ServiceRequest</t>
+  </si>
+  <si>
+    <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
+  </si>
+  <si>
+    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
   </si>
 </sst>
 </file>
@@ -955,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -973,69 +964,59 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1633,23 +1614,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1657,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1665,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1673,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207.75" customHeight="1">
@@ -1681,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1689,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1701,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1723,10 +1704,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1734,10 +1715,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
@@ -1752,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1780,25 +1761,25 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1844,13 +1825,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1883,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -1948,55 +1929,44 @@
     </row>
     <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30">
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="22:25" ht="18">
-      <c r="V24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="27" spans="22:25" ht="18">
-      <c r="Y27" s="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="22:25" ht="18">
+      <c r="V23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="26" spans="22:25" ht="18">
+      <c r="Y26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,7 +2029,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <selection pane="topRight" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2069,6 +2039,8 @@
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2076,29 +2048,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -2111,12 +2079,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
@@ -2132,10 +2098,10 @@
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
@@ -2145,16 +2111,20 @@
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
@@ -2168,12 +2138,10 @@
         <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
@@ -2189,10 +2157,10 @@
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
@@ -2205,13 +2173,11 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
@@ -2228,9 +2194,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
@@ -2247,9 +2211,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
@@ -2266,9 +2228,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
   </sheetData>
@@ -2281,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
@@ -2299,13 +2259,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2315,7 +2275,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2323,7 +2283,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -2331,7 +2291,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D3C5E-90C5-4CDB-BC19-2C857C692AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3D5AE-8C5B-C345-8BFE-8CEC37DF9E9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39150" yWindow="1110" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>Element</t>
   </si>
@@ -388,9 +386,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
   </si>
   <si>
     <t>HRex Task Data Request Profile</t>
@@ -481,12 +476,21 @@
   <si>
     <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
+  </si>
+  <si>
+    <t>CDex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +561,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -631,6 +642,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -952,9 +964,9 @@
       <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,24 +974,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -987,7 +999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -1035,21 +1047,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1081,56 +1093,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1138,7 +1150,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1147,7 +1159,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1155,14 +1167,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1170,27 +1182,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1198,14 +1210,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1214,7 +1226,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1222,20 +1234,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1243,7 +1255,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1251,7 +1263,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1259,25 +1271,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1286,7 +1298,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1295,7 +1307,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1304,7 +1316,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1313,203 +1325,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1521,62 +1533,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1595,13 +1607,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1609,15 +1621,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1633,15 +1645,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1649,23 +1661,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1686,12 +1698,12 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
@@ -1733,19 +1745,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1759,27 +1771,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1789,32 +1801,45 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1834,23 +1859,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1927,45 +1952,45 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="22:25" ht="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="26" spans="22:25" ht="18">
+    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y26" s="7"/>
     </row>
   </sheetData>
@@ -1982,16 +2007,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2008,13 +2033,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2032,43 +2057,43 @@
       <selection pane="topRight" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2085,7 +2110,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2099,12 +2124,12 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2112,13 +2137,13 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -2127,7 +2152,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2144,7 +2169,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2158,12 +2183,12 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2180,7 +2205,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2197,7 +2222,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2214,7 +2239,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2241,17 +2266,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2263,9 +2288,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2273,25 +2298,25 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2313,34 +2338,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2426,29 +2451,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2458,7 +2483,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2467,7 +2492,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2478,7 +2503,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2494,7 +2519,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2506,7 +2531,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2514,7 +2539,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2524,7 +2549,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2534,12 +2559,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2547,7 +2572,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2558,7 +2583,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2569,7 +2594,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2579,7 +2604,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2588,7 +2613,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2597,21 +2622,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2620,7 +2645,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2628,7 +2653,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2639,7 +2664,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2651,304 +2676,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3D5AE-8C5B-C345-8BFE-8CEC37DF9E9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A40347-65CB-423F-9B8A-DA8FFF516A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22830" yWindow="1110" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -454,43 +456,43 @@
 1. Support xml source formats for all Da Vinci Notification interactions.</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in Server mode when *reponding" to a  Data Source  (often an EHR) or one of its proxies is acting as a Client during a clnical data exchange *using the Task based approach*.   This includes the following interactions:
+    <t>conf_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>doc_CommunicationRequest</t>
+  </si>
+  <si>
+    <t>conf_ServiceRequest</t>
+  </si>
+  <si>
+    <t>doc_ServiceRequest</t>
+  </si>
+  <si>
+    <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
+  </si>
+  <si>
+    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
+  </si>
+  <si>
+    <t>CDex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Server* mode when  responding to a  Data Source  (often an EHR) or one of its proxies during a clinical data exchange.   This includes the following interactions:
 1. Responding to a query for Authorization information represented by a CommunicationRequest or ServiceRequest
 1. Responding to Subscription Notification posted to it endpoint updating the status of a Task</t>
-  </si>
-  <si>
-    <t>conf_CommunicationRequest</t>
-  </si>
-  <si>
-    <t>doc_CommunicationRequest</t>
-  </si>
-  <si>
-    <t>conf_ServiceRequest</t>
-  </si>
-  <si>
-    <t>doc_ServiceRequest</t>
-  </si>
-  <si>
-    <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
-  </si>
-  <si>
-    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
-  </si>
-  <si>
-    <t>CDex Task Data Request Profile</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,9 +966,9 @@
       <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -974,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -983,7 +985,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -991,7 +993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -1047,21 +1049,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1093,56 +1095,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1150,7 +1152,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1159,7 +1161,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1167,14 +1169,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1182,27 +1184,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1210,14 +1212,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1226,7 +1228,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1234,20 +1236,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1255,7 +1257,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1263,7 +1265,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1271,25 +1273,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1298,7 +1300,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1307,7 +1309,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1316,7 +1318,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1325,203 +1327,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" s="1" customFormat="1">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" s="1" customFormat="1">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" s="1" customFormat="1">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" s="1" customFormat="1">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" s="1" customFormat="1">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" s="1" customFormat="1">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" s="1" customFormat="1">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" s="1" customFormat="1">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" s="1" customFormat="1">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" s="1" customFormat="1">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" s="1" customFormat="1">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" s="1" customFormat="1">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" s="1" customFormat="1">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" s="1" customFormat="1">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" s="1" customFormat="1">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" s="1" customFormat="1">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:10" s="1" customFormat="1">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:10" s="1" customFormat="1">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:10" s="1" customFormat="1">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:10" s="1" customFormat="1">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" s="1" customFormat="1">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" s="1" customFormat="1">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" s="1" customFormat="1">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" s="1" customFormat="1">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" s="1" customFormat="1">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" s="1" customFormat="1">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16" s="1" customFormat="1">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:16" s="1" customFormat="1">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16" s="1" customFormat="1">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16" s="1" customFormat="1">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:16" ht="15.75">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1533,62 +1535,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16" s="1" customFormat="1">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16" s="1" customFormat="1">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16" s="1" customFormat="1">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16" s="1" customFormat="1">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16" s="1" customFormat="1">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16" s="1" customFormat="1">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16" s="1" customFormat="1">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16" s="1" customFormat="1">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16" s="1" customFormat="1">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:10" s="1" customFormat="1">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:10" s="1" customFormat="1">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1603,17 +1605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1645,15 +1647,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1698,12 +1700,12 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
@@ -1745,19 +1747,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1771,9 +1773,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -1786,7 +1788,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1801,12 +1803,12 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
@@ -1817,29 +1819,29 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1859,23 +1861,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="45">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -1985,12 +1987,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="22:25" ht="18">
       <c r="V23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:25" ht="18">
       <c r="Y26" s="7"/>
     </row>
   </sheetData>
@@ -2007,16 +2009,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2033,13 +2035,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2057,32 +2059,32 @@
       <selection pane="topRight" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>109</v>
@@ -2093,7 +2095,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2110,7 +2112,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2124,12 +2126,12 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2137,13 +2139,13 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -2152,7 +2154,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2171,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2183,12 +2185,12 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2205,7 +2207,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2222,7 +2224,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2239,7 +2241,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2270,13 +2272,13 @@
       <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2290,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -2298,7 +2300,7 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2338,34 +2340,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2451,29 +2453,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2483,7 +2485,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2492,7 +2494,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2503,7 +2505,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2519,7 +2521,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2531,7 +2533,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2539,7 +2541,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2549,7 +2551,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2559,12 +2561,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2572,7 +2574,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" ht="18.95" customHeight="1">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2583,7 +2585,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" ht="18.95" customHeight="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2594,7 +2596,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" ht="18.95" customHeight="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2604,7 +2606,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="18.95" customHeight="1">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2613,7 +2615,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" ht="18.95" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2622,21 +2624,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" ht="18.95" customHeight="1">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" ht="18.95" customHeight="1">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" ht="18.95" customHeight="1">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2645,7 +2647,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="18.95" customHeight="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2653,7 +2655,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" ht="18.95" customHeight="1">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2664,7 +2666,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="18.95" customHeight="1">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2676,304 +2678,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" ht="18.95" customHeight="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" ht="18.95" customHeight="1">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" ht="18.95" customHeight="1">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" ht="18.95" customHeight="1">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:27" ht="18.95" customHeight="1">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:27" ht="18.95" customHeight="1">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:27" ht="18.95" customHeight="1">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:27" ht="18.95" customHeight="1">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:27" ht="18.95" customHeight="1">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A40347-65CB-423F-9B8A-DA8FFF516A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C911D6-B48B-4A2D-94E6-A5D8C97D721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="1110" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C911D6-B48B-4A2D-94E6-A5D8C97D721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6F27E-F084-C64C-A176-69C6C49BD99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
   <si>
     <t>Element</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
   </si>
   <si>
     <t>doc</t>
@@ -384,9 +381,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci Health Record Exchange (HRex) </t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -413,12 +407,6 @@
   </si>
   <si>
     <t>doc_Subscription</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
   </si>
   <si>
     <t>transaction</t>
@@ -487,12 +475,30 @@
 1. Responding to a query for Authorization information represented by a CommunicationRequest or ServiceRequest
 1. Responding to Subscription Notification posted to it endpoint updating the status of a Task</t>
   </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,12 +969,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -976,61 +982,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1049,21 +1055,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1095,56 +1101,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1152,7 +1158,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1161,7 +1167,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1169,14 +1175,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1184,27 +1190,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1212,14 +1218,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1228,7 +1234,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1236,20 +1242,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1257,7 +1263,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1265,7 +1271,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1273,25 +1279,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1300,7 +1306,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1309,7 +1315,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1318,7 +1324,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1327,203 +1333,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1535,62 +1541,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1605,17 +1611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,68 +1629,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1694,18 +1700,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1713,28 +1721,37 @@
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1751,15 +1768,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1773,27 +1790,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1803,45 +1820,45 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
@@ -1861,23 +1878,23 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -1954,45 +1971,45 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="22:25" ht="18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="26" spans="22:25" ht="18">
+    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y26" s="7"/>
     </row>
   </sheetData>
@@ -2009,16 +2026,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2035,13 +2052,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2059,43 +2076,43 @@
       <selection pane="topRight" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2129,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2126,12 +2143,12 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2139,13 +2156,13 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -2154,7 +2171,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2171,7 +2188,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2185,12 +2202,12 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2207,7 +2224,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2224,7 +2241,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2241,7 +2258,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2272,13 +2289,13 @@
       <selection activeCell="U18" sqref="U18:V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2286,13 +2303,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2300,25 +2317,25 @@
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2340,34 +2357,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2453,29 +2470,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2485,7 +2502,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2494,7 +2511,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2505,7 +2522,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2521,7 +2538,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2533,7 +2550,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2541,7 +2558,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2551,7 +2568,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2561,12 +2578,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2574,7 +2591,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2585,7 +2602,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2596,7 +2613,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2606,7 +2623,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2615,7 +2632,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2624,21 +2641,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2647,7 +2664,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2655,7 +2672,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2666,7 +2683,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2678,304 +2695,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6F27E-F084-C64C-A176-69C6C49BD99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B494233E-8D1C-0547-8320-46F485F31A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,6 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
     <t>HRex Task Data Request Profile</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -996,7 +996,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -1792,25 +1792,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1973,35 +1973,35 @@
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2092,22 +2092,22 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2143,7 +2143,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2156,13 +2156,13 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -2202,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B494233E-8D1C-0547-8320-46F485F31A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B51423-415C-414F-BFCC-011747025AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="-21040" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
     <sheet name="meta" sheetId="1" r:id="rId2"/>
     <sheet name="igs" sheetId="10" r:id="rId3"/>
-    <sheet name="profiles" sheetId="2" r:id="rId4"/>
-    <sheet name="resources" sheetId="4" r:id="rId5"/>
-    <sheet name="ops" sheetId="5" r:id="rId6"/>
-    <sheet name="interactions" sheetId="6" r:id="rId7"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
-    <sheet name="sps" sheetId="7" r:id="rId9"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
+    <sheet name="capstatements" sheetId="13" r:id="rId4"/>
+    <sheet name="profiles" sheetId="2" r:id="rId5"/>
+    <sheet name="resources" sheetId="4" r:id="rId6"/>
+    <sheet name="ops" sheetId="5" r:id="rId7"/>
+    <sheet name="interactions" sheetId="6" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId9"/>
+    <sheet name="sps" sheetId="7" r:id="rId10"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>Element</t>
   </si>
@@ -91,9 +92,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ig</t>
-  </si>
-  <si>
     <t>mode</t>
   </si>
   <si>
@@ -238,9 +236,6 @@
     <t>imp_note</t>
   </si>
   <si>
-    <t>uri</t>
-  </si>
-  <si>
     <t>SHOULD</t>
   </si>
   <si>
@@ -277,12 +272,6 @@
     <t>conditionalRead</t>
   </si>
   <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
     <t>conditionalUpdate</t>
   </si>
   <si>
@@ -371,9 +360,6 @@
   </si>
   <si>
     <t>0.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
@@ -433,14 +419,6 @@
     <t>Required resource type to carry authorization information regarding for requesting Clniical information</t>
   </si>
   <si>
-    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
-1. Support json source formats for all Da Vinci Notification interactions.
-1. Declare a CapabilityStatement identifying  transactions and profiles supported.
-The  Da Vinci CDex Data Consumer  **SHOULD**:
-1. Support xml source formats for all Da Vinci Notification interactions.</t>
-  </si>
-  <si>
     <t>conf_CommunicationRequest</t>
   </si>
   <si>
@@ -476,9 +454,6 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
   </si>
   <si>
@@ -492,13 +467,66 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
+  </si>
+  <si>
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>application/json-patch+json</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
+1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
+1. Support json source formats for all Da Vinci CDex interactions.
+1. Declare a CapabilityStatement identifying  transactions and profiles supported.
+The  Da Vinci CDex Data Consumer  **SHOULD**:
+1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +604,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005C00"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,6 +691,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -966,17 +1008,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -984,59 +1026,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1045,1308 +1095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="89" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:V18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
@@ -2386,88 +1134,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="AB1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -3004,4 +1752,1382 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P82"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="5"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="11"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="11"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="11"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="10"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE0F7C-7CC8-1246-B806-09A74CA0DE20}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18:V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B51423-415C-414F-BFCC-011747025AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865A398-D844-A048-B1BB-046A4968FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="-21040" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>Element</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
@@ -520,6 +517,12 @@
 1. Declare a CapabilityStatement identifying  transactions and profiles supported.
 The  Da Vinci CDex Data Consumer  **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1038,7 +1041,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1086,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2321,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2384,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2397,31 +2400,31 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -2437,7 +2440,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2468,6 +2471,9 @@
       <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2477,10 +2483,10 @@
         <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2495,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE0F7C-7CC8-1246-B806-09A74CA0DE20}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2512,16 +2518,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2745,16 +2751,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865A398-D844-A048-B1BB-046A4968FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5666B-5BE4-A540-BC4B-DBE5D009FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
   <si>
     <t>Element</t>
   </si>
@@ -357,14 +357,6 @@
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)
-</t>
   </si>
   <si>
     <t>HRex Task Data Request Profile</t>
@@ -446,90 +438,119 @@
     <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
   </si>
   <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
+  </si>
+  <si>
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>application/json-patch+json</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
     <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Server* mode when  responding to a  Data Source  (often an EHR) or one of its proxies during a clinical data exchange.   This includes the following interactions:
-1. Responding to a query for Authorization information represented by a CommunicationRequest or ServiceRequest
-1. Responding to Subscription Notification posted to it endpoint updating the status of a Task</t>
-  </si>
-  <si>
-    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
-    <t>suppress_may_sps</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>json,xml</t>
-  </si>
-  <si>
-    <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
-  </si>
-  <si>
-    <t>patchFormat</t>
-  </si>
-  <si>
-    <t>application/json-patch+json</t>
-  </si>
-  <si>
-    <t>patchFormat_conf</t>
-  </si>
-  <si>
-    <t>canonical</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>instantiates</t>
-  </si>
-  <si>
-    <t>include_conf</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>revinclude</t>
-  </si>
-  <si>
-    <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>The  Da Vinci CDex Data Consumer  **SHALL**:
-1. Support  theTask Based Approach approaches for requesting information as defined in this Guide:
-1. Support json source formats for all Da Vinci CDex interactions.
-1. Declare a CapabilityStatement identifying  transactions and profiles supported.
-The  Da Vinci CDex Data Consumer  **SHOULD**:
+1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
+1. Responding to subscription notification posted to it endpoint updating the status of a task
+1. Responding to `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Consumer **SHALL**:
+1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+     1. Task Based Approach
+     1. Attachments
+1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
+1. Support JSON source formats for all Da Vinci CDex interactions.
+1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
+The  Da Vinci CDex Data Consumer **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
+  </si>
+  <si>
+    <t>Data Consumer Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-server</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>submit-attachment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
+  </si>
+  <si>
+    <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the '$submit-attachment` operation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,18 +610,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF005C00"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -628,7 +637,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,27 +654,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,13 +683,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1032,7 +1022,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1041,7 +1031,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1086,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2324,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2371,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2387,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,39 +2385,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2430,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2466,27 +2456,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2501,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE0F7C-7CC8-1246-B806-09A74CA0DE20}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2518,16 +2508,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2537,9 +2527,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="17"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,7 +2553,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2582,25 +2584,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
@@ -2612,21 +2614,21 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" s="1"/>
@@ -2664,10 +2666,10 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2751,49 +2753,49 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2814,20 +2816,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="89" customWidth="1"/>
+    <col min="5" max="5" width="98.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2844,11 +2846,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
@@ -2865,7 +2878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:G10"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2884,22 +2897,22 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2926,7 +2939,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2935,7 +2948,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2948,13 +2961,13 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -2994,7 +3007,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3101,7 +3114,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3111,7 +3124,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3119,7 +3132,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3127,7 +3140,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5666B-5BE4-A540-BC4B-DBE5D009FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088991E-82FA-2D46-8A30-8985914BA710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="157">
   <si>
     <t>Element</t>
   </si>
@@ -544,6 +544,24 @@
   </si>
   <si>
     <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the '$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>doc_DocumentReference</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2553,7 +2571,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2630,8 +2648,22 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" s="1"/>
@@ -2669,7 +2701,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2798,6 +2830,19 @@
         <v>98</v>
       </c>
     </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
     <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V23" s="7"/>
       <c r="X23" s="7"/>
@@ -2817,7 +2862,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2876,9 +2921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2890,6 +2935,7 @@
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="9" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2914,8 +2960,12 @@
       <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2931,8 +2981,9 @@
         <v>25</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2950,8 +3001,9 @@
       <c r="G3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2973,8 +3025,9 @@
         <v>25</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2990,8 +3043,9 @@
         <v>25</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3009,8 +3063,9 @@
       <c r="G6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3026,8 +3081,9 @@
         <v>25</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3043,8 +3099,9 @@
         <v>25</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3060,8 +3117,9 @@
         <v>25</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3077,8 +3135,9 @@
         <v>25</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088991E-82FA-2D46-8A30-8985914BA710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B2D00-F7CD-3740-90F3-3CCA2A67A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
   </si>
   <si>
-    <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the '$submit-attachment` operation.</t>
-  </si>
-  <si>
     <t>DocumentReference</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>doc_DocumentReference</t>
+  </si>
+  <si>
+    <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the `$submit-attachment` operation.</t>
   </si>
 </sst>
 </file>
@@ -2650,19 +2650,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,13 +2832,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2905,7 +2905,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -2961,10 +2961,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B2D00-F7CD-3740-90F3-3CCA2A67A9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911E94B-E219-D744-85E5-6D242AA4E3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -447,9 +447,6 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1048,8 +1048,8 @@
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
+      <c r="B3" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,36 +2403,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2463,7 +2463,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2480,7 +2480,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2491,10 +2491,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2526,16 +2526,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2549,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2650,19 +2650,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,16 +2785,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2832,13 +2832,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2861,7 +2861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2893,19 +2893,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,10 +2961,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911E94B-E219-D744-85E5-6D242AA4E3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0539B5DD-8491-8948-A8A8-6716F035A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>ServiceRequest</t>
   </si>
   <si>
-    <t>Required resource type to carry authorization information regarding for requesting Clniical information</t>
-  </si>
-  <si>
     <t>conf_CommunicationRequest</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1049,7 +1049,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,36 +2403,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2463,7 +2463,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2526,16 +2526,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2549,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
@@ -2650,19 +2650,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,16 +2785,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2805,7 +2805,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2832,13 +2832,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2893,19 +2893,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,16 +2943,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>99</v>
@@ -2961,10 +2961,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -3013,13 +3013,13 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>52</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0539B5DD-8491-8948-A8A8-6716F035A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E02D6-C8CB-7E48-9586-12D0CCE0BC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -438,15 +438,9 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
     <t>suppress_may_sps</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -563,12 +554,21 @@
   <si>
     <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +646,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -673,11 +681,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,9 +713,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1040,7 +1051,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1049,7 +1060,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1105,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2363,7 +2374,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,36 +2414,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2447,14 +2458,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2463,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2480,7 +2491,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2488,19 +2499,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4E66347B-FDB3-144F-A374-C6DCA05A3A6C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6C9E03F2-CC14-5544-8AFD-CD156D8FA6EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2518,7 +2533,7 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
@@ -2526,16 +2541,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2549,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2650,19 +2665,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,16 +2800,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2805,7 +2820,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2816,7 +2831,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2832,13 +2847,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2893,19 +2908,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,10 +2976,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E02D6-C8CB-7E48-9586-12D0CCE0BC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F618B-CA8B-4E4C-A6F0-8583938701D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16260" yWindow="-20280" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15460" yWindow="4880" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -438,9 +438,6 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
     <t>suppress_may_sps</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
   </si>
   <si>
     <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
   </si>
   <si>
     <t>patchFormat</t>
@@ -496,6 +490,67 @@
 1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
 1. Responding to subscription notification posted to it endpoint updating the status of a task
 1. Responding to `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
+  </si>
+  <si>
+    <t>Data Consumer Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-server</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>submit-attachment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>doc_DocumentReference</t>
+  </si>
+  <si>
+    <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer **SHALL**:
@@ -505,63 +560,9 @@
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Consumer **SHOULD**:
-1. Support xml source formats for all Da Vinci CDex interactions.</t>
-  </si>
-  <si>
-    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
-  </si>
-  <si>
-    <t>Data Consumer Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-server</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>submit-attachment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/OperationDefinition/submit-attachment</t>
-  </si>
-  <si>
-    <t>DocumentReference</t>
-  </si>
-  <si>
-    <t>Required resource type to support the `$submit-attachment` operation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
-  </si>
-  <si>
-    <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>doc_DocumentReference</t>
-  </si>
-  <si>
-    <t>If [Attachments](attachments.html) is supported, the Data Consumer Server **SHALL**  support the `$submit-attachment` operation.</t>
-  </si>
-  <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+The  Da Vinci CDex Data Consumer **MAY**:
+1. Support XML source formats for all Da Vinci CDex interactions.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1034,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1052,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1060,7 +1061,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1106,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2343,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2374,7 +2375,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2390,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,36 +2415,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2458,7 +2459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2474,7 +2475,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>85</v>
@@ -2491,7 +2492,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2499,13 +2500,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2541,16 +2542,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2564,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2665,19 +2666,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2800,16 +2801,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
@@ -2820,7 +2821,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2831,7 +2832,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2847,13 +2848,13 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2908,19 +2909,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2976,10 +2977,10 @@
         <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F618B-CA8B-4E4C-A6F0-8583938701D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C399511-3AF4-864A-83D2-2898CE8561D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="4880" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66860" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>Element</t>
   </si>
@@ -302,9 +302,6 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -359,31 +356,6 @@
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
   </si>
   <si>
-    <t>HRex Task Data Request Profile</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-HRex Coverage Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>Subscription</t>
-  </si>
-  <si>
-    <t>Required resource type to subscribe to data source</t>
-  </si>
-  <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
-    <t>doc_Subscription</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -423,18 +395,6 @@
     <t>Either a CommunicationRequest or ServiceRequest is required if an Authorization is required for a particular clinical data exchange scenario</t>
   </si>
   <si>
-    <t>If subscriptions are supported the subscription notification is posted to it endpoint updating the status of a Task</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
-  </si>
-  <si>
-    <t>CDex Task Data Request Profile</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
-  </si>
-  <si>
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
@@ -481,15 +441,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer (often a Payer) in *Server* mode when  responding to a  Data Source  (often an EHR) or one of its proxies during a clinical data exchange.   This includes the following interactions:
-1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
-1. Responding to subscription notification posted to it endpoint updating the status of a task
-1. Responding to `$submit-attachment` operation.</t>
   </si>
   <si>
     <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
@@ -553,16 +504,33 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
   </si>
   <si>
-    <t>The  Da Vinci CDex Data Consumer **SHALL**:
-1. Support at least one of the these FHIR transaction approaches for exchanging clinical information as defined in this Guide:
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>conf_Parameters</t>
+  </si>
+  <si>
+    <t>doc_Parameters</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Consumer Server **SHALL**:
+ 1. Support at least one of the CDex approaches for exchanging clinical information:
      1. Task Based Approach
      1. Attachments
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Consumer **MAY**:
+The  Da Vinci CDex Data Consumer Server **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Server* mode when responding to a  Data Source   or one of its proxies during clinical data exchange.   The capabilities include one or more of the following interactions:
+1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
+1. Responding to  the `$submit-attachment` operation.</t>
   </si>
 </sst>
 </file>
@@ -1049,64 +1017,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -2344,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2367,23 +2335,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2399,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,36 +2383,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -2475,10 +2443,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2486,13 +2454,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2500,13 +2468,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2542,19 +2510,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2565,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2584,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2616,72 +2584,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2689,19 +2621,6 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2711,13 +2630,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2750,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2801,52 +2717,54 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -2854,18 +2772,19 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="23" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="26" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y26" s="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="19" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="22" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2909,19 +2828,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2935,11 +2854,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2949,41 +2868,46 @@
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="9" width="37.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2994,14 +2918,15 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3012,16 +2937,15 @@
         <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3029,23 +2953,24 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>52</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3056,14 +2981,15 @@
         <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>52</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3076,14 +3002,13 @@
       <c r="F6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3093,15 +3018,16 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3114,12 +3040,13 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3132,12 +3059,13 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3150,10 +3078,11 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3183,13 +3112,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3199,7 +3128,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3207,7 +3136,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3215,7 +3144,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C399511-3AF4-864A-83D2-2898CE8561D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E425EFF-3F66-D045-8DC9-FC8C837CFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66860" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39420" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>Element</t>
   </si>
@@ -514,6 +514,32 @@
   </si>
   <si>
     <t>doc_Parameters</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Server* mode when responding to a  Data Source   or one of its proxies during clinical data exchange.   The capabilities include one or more of the following interactions:
+1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
+1. Responding to  the `$submit-attachment` operation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>CDex SDC QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-sdc-questionnaireresponse.html</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>Required resource type to support the `$submit-attachment` operation for Requesting Attachments Using Questionnaires. *SHALL** support CDex SDC QuestionnaireResponse Profile for signed QuestionnaireResponse.</t>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>doc_QuestionnaireResponse</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Consumer Server **SHALL**:
@@ -523,23 +549,26 @@
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
+    - Follow the guidelines for [Conforming to CDex Attachments](attachments-conformance.html) if supporting this exchange.
 The  Da Vinci CDex Data Consumer Server **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Consumer  in *Server* mode when responding to a  Data Source   or one of its proxies during clinical data exchange.   The capabilities include one or more of the following interactions:
-1. Responding to a query for authorization information represented by a CommunicationRequest or ServiceRequest
-1. Responding to  the `$submit-attachment` operation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -623,6 +652,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,11 +694,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -664,25 +705,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -703,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -991,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -1007,76 +1052,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1098,641 +1142,470 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7" s="6"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="J9"/>
-      <c r="X9"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="J10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="J11"/>
-      <c r="O11"/>
-      <c r="X11"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="J12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="J13"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="J14"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="E16"/>
-      <c r="J16"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="J17"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="J19"/>
-      <c r="X19"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="X20"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="E22"/>
-      <c r="Z22"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="E23"/>
-      <c r="J23" s="6"/>
-      <c r="Y23"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="E24"/>
-      <c r="J24"/>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="E25"/>
-      <c r="J25" s="6"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="J26"/>
-      <c r="X26"/>
-      <c r="Y26" s="5"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="J27"/>
-      <c r="Q27"/>
-      <c r="X27"/>
-      <c r="Y27" s="5"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="J28"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="J29"/>
-      <c r="X29"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="J30"/>
-      <c r="X30"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="J31"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="12"/>
-    </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-    </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA39" s="12"/>
-    </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-    </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="12"/>
-    </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-    </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-    </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA45" s="12"/>
-    </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA46" s="12"/>
-    </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-    </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="12"/>
-    </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-    </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-    </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N51" s="14"/>
-      <c r="AA51" s="12"/>
-    </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-    </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="12"/>
-    </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA54" s="12"/>
-    </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-    </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-    </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA57" s="12"/>
-    </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="12"/>
-    </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V59" s="7"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-    </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N60" s="14"/>
-      <c r="AA60" s="12"/>
-    </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="12"/>
-    </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="12"/>
-    </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA63" s="12"/>
-    </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="12"/>
-    </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="12"/>
-    </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-    </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-    </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA68" s="12"/>
-    </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-    </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="12"/>
-    </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="12"/>
-    </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA72" s="12"/>
-    </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-    </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="12"/>
-    </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="12"/>
-    </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-    </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="12"/>
-    </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-    </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="12"/>
-    </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="12"/>
-    </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="12"/>
-    </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="12"/>
-    </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="12"/>
-    </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="12"/>
-    </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="12"/>
-    </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="12"/>
-    </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="12"/>
-    </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="12"/>
-    </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="12"/>
-    </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="12"/>
-    </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="12"/>
-    </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="12"/>
-    </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y93" s="5"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="35" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="10"/>
+    </row>
+    <row r="39" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="10"/>
+    </row>
+    <row r="54" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="10"/>
+    </row>
+    <row r="55" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="10"/>
+    </row>
+    <row r="56" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="10"/>
+    </row>
+    <row r="88" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="10"/>
+    </row>
+    <row r="89" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="10"/>
+    </row>
+    <row r="90" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="10"/>
+    </row>
+    <row r="91" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="10"/>
+    </row>
+    <row r="92" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="10"/>
+    </row>
+    <row r="93" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -1747,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
@@ -1758,549 +1631,416 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" customWidth="1"/>
+    <col min="10" max="10" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="4"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2313,13 +2053,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2338,19 +2078,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2358,8 +2098,8 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>146</v>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,47 +2114,47 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2435,48 +2175,48 @@
   <cols>
     <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2499,49 +2239,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="b">
+      <c r="B2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2552,19 +2290,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2574,7 +2312,7 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
       <c r="D1" t="s">
@@ -2585,42 +2323,40 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2633,23 +2369,23 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2659,132 +2395,145 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="19" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="V19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="22" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2797,7 +2546,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2826,25 +2575,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2854,235 +2603,246 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="37.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3101,52 +2861,51 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E425EFF-3F66-D045-8DC9-FC8C837CFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE09CB9-F87B-7247-8C29-22CDDA96BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55940" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
   <si>
     <t>Element</t>
   </si>
@@ -438,21 +438,12 @@
   </si>
   <si>
     <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
   </si>
   <si>
     <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
   </si>
   <si>
-    <t>Data Consumer Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-consumer-server</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -502,9 +493,6 @@
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -554,12 +542,27 @@
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU3.1.1/index.html</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
+  </si>
+  <si>
+    <t>2.1.0-preview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,20 +644,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,12 +681,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -721,17 +709,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,9 +733,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,7 +773,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -894,7 +879,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1036,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,7 +1050,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,7 +1058,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2052,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2083,7 +2068,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2099,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2115,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2139,7 +2124,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2165,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2200,7 +2185,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2208,33 +2193,43 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>138</v>
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4E66347B-FDB3-144F-A374-C6DCA05A3A6C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6C9E03F2-CC14-5544-8AFD-CD156D8FA6EB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE0F7C-7CC8-1246-B806-09A74CA0DE20}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,23 +2259,6 @@
       </c>
       <c r="F1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2324,38 +2302,38 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>149</v>
+      <c r="E3" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2484,45 +2462,45 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -2577,19 +2555,19 @@
     </row>
     <row r="2" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,9 +2583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I37" sqref="I37"/>
+      <selection pane="topRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2640,22 +2618,22 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE09CB9-F87B-7247-8C29-22CDDA96BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578ECC5-D68C-094B-B16A-B60DB2A81534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55940" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55940" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="165">
   <si>
     <t>Element</t>
   </si>
@@ -457,12 +457,6 @@
   </si>
   <si>
     <t>Required resource type to support the `$submit-attachment` operation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
   </si>
   <si>
     <t>conf_DocumentReference</t>
@@ -556,6 +550,42 @@
   </si>
   <si>
     <t>2.1.0-preview</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|7.0.0</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 3.1.1)</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 6.1.0)</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile (Version 7.0.0)</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU6.1/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-documentreference.html</t>
   </si>
 </sst>
 </file>
@@ -685,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,6 +744,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1050,7 +1082,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1090,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2037,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2068,7 +2100,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,7 +2156,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2217,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2193,13 +2225,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2207,15 +2239,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2229,7 +2275,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2268,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2300,15 +2346,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>126</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>159</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -2319,21 +2365,59 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2535,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2462,7 +2546,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2478,7 +2562,7 @@
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2489,13 +2573,13 @@
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2567,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2618,22 +2702,22 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578ECC5-D68C-094B-B16A-B60DB2A81534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA745BA-AE70-FA40-B298-705CA6AF4477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55940" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -350,12 +350,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/</t>
   </si>
   <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
   </si>
   <si>
-    <t>2.1.0-preview</t>
-  </si>
-  <si>
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 7.0.0</t>
   </si>
   <si>
@@ -586,6 +577,15 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/us/core/STU3.1.1/StructureDefinition-us-core-documentreference.html</t>
+  </si>
+  <si>
+    <t>HL7 International / Payer/Provider Information Exchange Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/claims</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,8 +744,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1064,7 +1062,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1080,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1088,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1112,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,12 +1128,12 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2069,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2092,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,7 +2098,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2116,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2124,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2140,36 +2138,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2200,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -2211,13 +2209,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2225,13 +2223,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2239,13 +2237,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2253,13 +2251,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2289,16 +2287,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
         <v>84</v>
@@ -2316,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2347,77 +2345,77 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>164</v>
+      <c r="C2" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" t="s">
         <v>160</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>163</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2515,71 +2513,71 @@
         <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2639,19 +2637,19 @@
     </row>
     <row r="2" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2690,34 +2688,34 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2768,13 +2766,13 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -2940,7 +2938,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2949,7 +2947,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -2957,7 +2955,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2965,7 +2963,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-consumer-server.xlsx
+++ b/input/resources-spreadsheet/data-consumer-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA745BA-AE70-FA40-B298-705CA6AF4477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14AEAF1-9F06-454D-B6FD-91796E817747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -468,15 +468,6 @@
     <t>Required resource type to carry authorization information regarding for requesting Clinical information</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
-  </si>
-  <si>
     <t>SHALL,MAY</t>
   </si>
   <si>
@@ -540,18 +531,12 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
-  </si>
-  <si>
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 7.0.0</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|3.1.1</t>
   </si>
   <si>
@@ -586,6 +571,21 @@
   </si>
   <si>
     <t>2.1.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7/index.html</t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2098,7 +2098,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2114,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2215,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>11</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>11</v>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="6" spans="1:25" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -2706,16 +2706,16 @@
         <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
